--- a/dataanalysis/alert/0709.xlsx
+++ b/dataanalysis/alert/0709.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>最高价</t>
+  </si>
+  <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
   </si>
   <si>
     <t>北陆药业</t>
@@ -1327,7 +1333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,6 +1370,12 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1380,35 +1392,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1685,13 +1670,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1945,15 +1923,15 @@
   <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="14" max="15" width="11.5"/>
+    <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:20">
+    <row r="1" ht="24.85" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2013,6 +1991,12 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2026,7 +2010,7 @@
         <v>300016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>-4.04</v>
@@ -2035,7 +2019,7 @@
         <v>9.74</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>-4.93</v>
@@ -2047,7 +2031,7 @@
         <v>-0.41</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="4">
@@ -2063,21 +2047,21 @@
         <v>-0.58</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="13">
+        <v>25</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="15">
         <v>0</v>
       </c>
-      <c r="V2" s="14">
+      <c r="V2" s="16">
         <v>1.28</v>
       </c>
     </row>
@@ -2092,7 +2076,7 @@
         <v>300019</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>-2.74</v>
@@ -2101,7 +2085,7 @@
         <v>20.56</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <v>18.29</v>
@@ -2113,7 +2097,7 @@
         <v>19.99</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="4">
@@ -2129,21 +2113,21 @@
         <v>-1.17</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="13">
+        <v>25</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="15">
         <v>0</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="16">
         <v>0.41</v>
       </c>
     </row>
@@ -2158,7 +2142,7 @@
         <v>300030</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4">
         <v>-4.23</v>
@@ -2167,7 +2151,7 @@
         <v>8.16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4">
         <v>0.37</v>
@@ -2179,7 +2163,7 @@
         <v>0.61</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="4">
@@ -2195,21 +2179,21 @@
         <v>-0.98</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="13">
+        <v>25</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="15">
         <v>0</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="16">
         <v>1.3</v>
       </c>
     </row>
@@ -2224,7 +2208,7 @@
         <v>300043</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>-3.01</v>
@@ -2233,7 +2217,7 @@
         <v>4.83</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4">
         <v>1.86</v>
@@ -2245,7 +2229,7 @@
         <v>5.18</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="4">
@@ -2261,21 +2245,21 @@
         <v>-1.2</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="13">
+        <v>25</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="15">
         <v>0</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="16">
         <v>1.85</v>
       </c>
     </row>
@@ -2290,7 +2274,7 @@
         <v>300127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>-4.13</v>
@@ -2299,7 +2283,7 @@
         <v>29.25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>1.71</v>
@@ -2311,7 +2295,7 @@
         <v>4.31</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="4">
@@ -2327,21 +2311,21 @@
         <v>-1.41</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U6" s="13">
+        <v>25</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="15">
         <v>0</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="16">
         <v>1.61</v>
       </c>
     </row>
@@ -2356,7 +2340,7 @@
         <v>300130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4">
         <v>-0.77</v>
@@ -2365,7 +2349,7 @@
         <v>36.03</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4">
         <v>-5.08</v>
@@ -2377,7 +2361,7 @@
         <v>1.3</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="4">
@@ -2393,21 +2377,21 @@
         <v>0.14</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="13">
+        <v>25</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="15">
         <v>0</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="16">
         <v>4.23</v>
       </c>
     </row>
@@ -2422,7 +2406,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>-2.3</v>
@@ -2431,7 +2415,7 @@
         <v>6.36</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4">
         <v>-1.42</v>
@@ -2443,7 +2427,7 @@
         <v>2.83</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="4">
@@ -2459,21 +2443,21 @@
         <v>-1.27</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="16">
+        <v>25</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="18">
         <v>1</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="16">
         <v>4.97</v>
       </c>
     </row>
@@ -2488,7 +2472,7 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4">
         <v>-1.51</v>
@@ -2497,7 +2481,7 @@
         <v>9.8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4">
         <v>-2.86</v>
@@ -2509,7 +2493,7 @@
         <v>0.92</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="4">
@@ -2525,21 +2509,21 @@
         <v>-0.81</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U9" s="13">
+        <v>25</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U9" s="15">
         <v>0</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="16">
         <v>4.7</v>
       </c>
     </row>
@@ -2554,7 +2538,7 @@
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>-0.33</v>
@@ -2563,7 +2547,7 @@
         <v>15.28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4">
         <v>-1.83</v>
@@ -2575,7 +2559,7 @@
         <v>2.81</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="4">
@@ -2591,21 +2575,21 @@
         <v>-0.66</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="13">
+        <v>25</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="15">
         <v>0</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="16">
         <v>5.14</v>
       </c>
     </row>
@@ -2620,7 +2604,7 @@
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>1.74</v>
@@ -2629,7 +2613,7 @@
         <v>18.76</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
         <v>-2.77</v>
@@ -2641,7 +2625,7 @@
         <v>0.43</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="4">
@@ -2657,21 +2641,21 @@
         <v>-0.2</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="13">
+        <v>25</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="15">
         <v>0</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="16">
         <v>4.54</v>
       </c>
     </row>
@@ -2686,7 +2670,7 @@
         <v>300246</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4">
         <v>-2.68</v>
@@ -2695,7 +2679,7 @@
         <v>10.18</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4">
         <v>-1.08</v>
@@ -2707,7 +2691,7 @@
         <v>2.85</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="4">
@@ -2723,21 +2707,21 @@
         <v>-0.35</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="13">
+        <v>25</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="15">
         <v>0</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="16">
         <v>1.45</v>
       </c>
     </row>
@@ -2752,7 +2736,7 @@
         <v>300265</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>-0.1</v>
@@ -2761,7 +2745,7 @@
         <v>10.15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" s="4">
         <v>2.36</v>
@@ -2773,7 +2757,7 @@
         <v>3.94</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="4">
@@ -2789,21 +2773,21 @@
         <v>-0.38</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="16">
+        <v>25</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="18">
         <v>1</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="16">
         <v>5.17</v>
       </c>
     </row>
@@ -2818,7 +2802,7 @@
         <v>300269</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4">
         <v>0.35</v>
@@ -2827,7 +2811,7 @@
         <v>5.72</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="4">
         <v>-4.2</v>
@@ -2839,7 +2823,7 @@
         <v>-2.1</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="4">
@@ -2855,21 +2839,21 @@
         <v>-0.44</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="13">
+        <v>25</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="15">
         <v>0</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="16">
         <v>4.77</v>
       </c>
     </row>
@@ -2884,7 +2868,7 @@
         <v>300335</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4">
         <v>1.5</v>
@@ -2893,7 +2877,7 @@
         <v>6.75</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="4">
         <v>-7.56</v>
@@ -2905,7 +2889,7 @@
         <v>-2.37</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="4">
@@ -2921,21 +2905,21 @@
         <v>-0.73</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" s="13">
+        <v>25</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="15">
         <v>0</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="16">
         <v>1.2</v>
       </c>
     </row>
@@ -2950,7 +2934,7 @@
         <v>300348</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4">
         <v>0.47</v>
@@ -2959,7 +2943,7 @@
         <v>19.35</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H16" s="4">
         <v>0.78</v>
@@ -2971,7 +2955,7 @@
         <v>8.53</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
@@ -2987,21 +2971,21 @@
         <v>0.64</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="13">
+        <v>25</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="15">
         <v>0</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="16">
         <v>2.76</v>
       </c>
     </row>
@@ -3016,7 +3000,7 @@
         <v>300368</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4">
         <v>-3.06</v>
@@ -3025,7 +3009,7 @@
         <v>12.37</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17" s="4">
         <v>-17.7</v>
@@ -3037,7 +3021,7 @@
         <v>-7.28</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="4">
@@ -3053,21 +3037,21 @@
         <v>-1.06</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U17" s="16">
+        <v>25</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U17" s="18">
         <v>1</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="16">
         <v>3.36</v>
       </c>
     </row>
@@ -3082,7 +3066,7 @@
         <v>300414</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4">
         <v>1.22</v>
@@ -3091,7 +3075,7 @@
         <v>13.31</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4">
         <v>-7.06</v>
@@ -3103,7 +3087,7 @@
         <v>-2.7</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="4">
@@ -3119,21 +3103,21 @@
         <v>-0.35</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U18" s="16">
+        <v>25</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U18" s="18">
         <v>1</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="16">
         <v>6.13</v>
       </c>
     </row>
@@ -3148,7 +3132,7 @@
         <v>300436</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4">
         <v>-3.16</v>
@@ -3157,7 +3141,7 @@
         <v>58.32</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" s="4">
         <v>-0.89</v>
@@ -3169,7 +3153,7 @@
         <v>2.98</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="4">
@@ -3185,21 +3169,21 @@
         <v>-1.22</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U19" s="13">
+        <v>25</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U19" s="15">
         <v>0</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="16">
         <v>4.68</v>
       </c>
     </row>
@@ -3214,7 +3198,7 @@
         <v>300452</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="4">
         <v>-2.52</v>
@@ -3223,7 +3207,7 @@
         <v>13.94</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" s="4">
         <v>-1.43</v>
@@ -3235,7 +3219,7 @@
         <v>1.15</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
@@ -3251,21 +3235,21 @@
         <v>-1.19</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U20" s="13">
+        <v>25</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U20" s="15">
         <v>0</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="16">
         <v>2.4</v>
       </c>
     </row>
@@ -3280,7 +3264,7 @@
         <v>300468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4">
         <v>-1.99</v>
@@ -3289,7 +3273,7 @@
         <v>48.22</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H21" s="4">
         <v>-8.46</v>
@@ -3301,7 +3285,7 @@
         <v>7.84</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="4">
@@ -3317,21 +3301,21 @@
         <v>-0.57</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U21" s="13">
+        <v>25</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="15">
         <v>0</v>
       </c>
-      <c r="V21" s="14">
+      <c r="V21" s="16">
         <v>4.68</v>
       </c>
     </row>
@@ -3346,7 +3330,7 @@
         <v>300485</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E22" s="4">
         <v>0.42</v>
@@ -3355,7 +3339,7 @@
         <v>14.37</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H22" s="4">
         <v>-2.99</v>
@@ -3367,7 +3351,7 @@
         <v>0.07</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="4">
@@ -3383,21 +3367,21 @@
         <v>-0.05</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="13">
+        <v>25</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="15">
         <v>0</v>
       </c>
-      <c r="V22" s="14">
+      <c r="V22" s="16">
         <v>6.23</v>
       </c>
     </row>
@@ -3412,7 +3396,7 @@
         <v>300505</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4">
         <v>-3.73</v>
@@ -3421,7 +3405,7 @@
         <v>19.85</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H23" s="4">
         <v>0.5</v>
@@ -3433,7 +3417,7 @@
         <v>1.11</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="4">
@@ -3449,21 +3433,21 @@
         <v>-2.79</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U23" s="13">
+        <v>25</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U23" s="15">
         <v>0</v>
       </c>
-      <c r="V23" s="14">
+      <c r="V23" s="16">
         <v>0.42</v>
       </c>
     </row>
@@ -3478,7 +3462,7 @@
         <v>300515</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4">
         <v>-0.79</v>
@@ -3487,7 +3471,7 @@
         <v>25.1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H24" s="4">
         <v>-2.67</v>
@@ -3499,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="4">
@@ -3515,21 +3499,21 @@
         <v>-0.1</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="13">
+        <v>25</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="15">
         <v>0</v>
       </c>
-      <c r="V24" s="14">
+      <c r="V24" s="16">
         <v>3.36</v>
       </c>
     </row>
@@ -3544,7 +3528,7 @@
         <v>300516</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4">
         <v>-2.39</v>
@@ -3553,7 +3537,7 @@
         <v>39.14</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H25" s="4">
         <v>-2.58</v>
@@ -3565,7 +3549,7 @@
         <v>0.13</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
@@ -3581,21 +3565,21 @@
         <v>-0.25</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="13">
+        <v>25</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="15">
         <v>0</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="16">
         <v>3.72</v>
       </c>
     </row>
@@ -3610,7 +3594,7 @@
         <v>300527</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="4">
         <v>-2.15</v>
@@ -3619,7 +3603,7 @@
         <v>10.93</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H26" s="4">
         <v>1.56</v>
@@ -3631,7 +3615,7 @@
         <v>3.2</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="4">
@@ -3647,21 +3631,21 @@
         <v>-0.61</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="13">
+        <v>25</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="15">
         <v>0</v>
       </c>
-      <c r="V26" s="14">
+      <c r="V26" s="16">
         <v>-1.65</v>
       </c>
     </row>
@@ -3676,7 +3660,7 @@
         <v>300531</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4">
         <v>-3.37</v>
@@ -3685,7 +3669,7 @@
         <v>21.82</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H27" s="4">
         <v>-2.43</v>
@@ -3697,7 +3681,7 @@
         <v>-0.18</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="4">
@@ -3713,21 +3697,21 @@
         <v>-0.85</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="13">
+        <v>25</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="15">
         <v>0</v>
       </c>
-      <c r="V27" s="14">
+      <c r="V27" s="16">
         <v>2.2</v>
       </c>
     </row>
@@ -3742,7 +3726,7 @@
         <v>300533</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="4">
         <v>0.43</v>
@@ -3751,7 +3735,7 @@
         <v>39.39</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H28" s="4">
         <v>-2.01</v>
@@ -3763,7 +3747,7 @@
         <v>1.02</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
@@ -3779,21 +3763,21 @@
         <v>-0.34</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U28" s="13">
+        <v>25</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U28" s="15">
         <v>0</v>
       </c>
-      <c r="V28" s="14">
+      <c r="V28" s="16">
         <v>6.08</v>
       </c>
     </row>
@@ -3808,7 +3792,7 @@
         <v>300537</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="4">
         <v>6.07</v>
@@ -3817,7 +3801,7 @@
         <v>29</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="4">
         <v>1.03</v>
@@ -3829,7 +3813,7 @@
         <v>2.79</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="4">
@@ -3844,22 +3828,22 @@
       <c r="P29" s="10">
         <v>2.34</v>
       </c>
-      <c r="Q29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="16">
+      <c r="Q29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="18">
         <v>1</v>
       </c>
-      <c r="V29" s="14">
+      <c r="V29" s="16">
         <v>5.59</v>
       </c>
     </row>
@@ -3874,7 +3858,7 @@
         <v>300554</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4">
         <v>-4.22</v>
@@ -3883,7 +3867,7 @@
         <v>25.62</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="4">
         <v>-3.79</v>
@@ -3895,7 +3879,7 @@
         <v>-0.51</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="4">
@@ -3911,21 +3895,21 @@
         <v>-1.38</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U30" s="13">
+        <v>25</v>
+      </c>
+      <c r="R30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U30" s="15">
         <v>0</v>
       </c>
-      <c r="V30" s="14">
+      <c r="V30" s="16">
         <v>2.79</v>
       </c>
     </row>
@@ -3940,7 +3924,7 @@
         <v>300581</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4">
         <v>2.04</v>
@@ -3949,7 +3933,7 @@
         <v>20.97</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H31" s="4">
         <v>-6.58</v>
@@ -3961,7 +3945,7 @@
         <v>-2.24</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
@@ -3977,21 +3961,21 @@
         <v>-0.27</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="13">
+        <v>25</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="15">
         <v>0</v>
       </c>
-      <c r="V31" s="14">
+      <c r="V31" s="16">
         <v>5.6</v>
       </c>
     </row>
@@ -4006,7 +3990,7 @@
         <v>300591</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E32" s="4">
         <v>1.18</v>
@@ -4015,7 +3999,7 @@
         <v>12.85</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H32" s="4">
         <v>-7.39</v>
@@ -4027,7 +4011,7 @@
         <v>0.93</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
@@ -4043,21 +4027,21 @@
         <v>-3.81</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32" s="13">
+        <v>25</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="15">
         <v>0</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="16">
         <v>2.15</v>
       </c>
     </row>
@@ -4072,7 +4056,7 @@
         <v>300600</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4">
         <v>-4.69</v>
@@ -4081,7 +4065,7 @@
         <v>14.85</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H33" s="4">
         <v>-6.13</v>
@@ -4093,7 +4077,7 @@
         <v>-2.49</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="4">
@@ -4109,21 +4093,21 @@
         <v>-1.28</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U33" s="13">
+        <v>25</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" s="15">
         <v>0</v>
       </c>
-      <c r="V33" s="14">
+      <c r="V33" s="16">
         <v>3.28</v>
       </c>
     </row>
@@ -4138,7 +4122,7 @@
         <v>300609</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4">
         <v>-4.69</v>
@@ -4147,7 +4131,7 @@
         <v>34.98</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H34" s="4">
         <v>-2.26</v>
@@ -4159,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
@@ -4175,21 +4159,21 @@
         <v>-0.43</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U34" s="13">
+        <v>25</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" s="15">
         <v>0</v>
       </c>
-      <c r="V34" s="14">
+      <c r="V34" s="16">
         <v>5.75</v>
       </c>
     </row>
@@ -4204,7 +4188,7 @@
         <v>300645</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4">
         <v>-3.21</v>
@@ -4213,7 +4197,7 @@
         <v>21.14</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H35" s="4">
         <v>-3.64</v>
@@ -4225,7 +4209,7 @@
         <v>1.18</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="4">
@@ -4241,21 +4225,21 @@
         <v>-0.37</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U35" s="13">
+        <v>25</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="15">
         <v>0</v>
       </c>
-      <c r="V35" s="14">
+      <c r="V35" s="16">
         <v>6.04</v>
       </c>
     </row>
@@ -4270,7 +4254,7 @@
         <v>300649</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E36" s="4">
         <v>3.24</v>
@@ -4279,7 +4263,7 @@
         <v>22.01</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H36" s="4">
         <v>-8.45</v>
@@ -4291,7 +4275,7 @@
         <v>-2.27</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
@@ -4307,21 +4291,21 @@
         <v>-1.27</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U36" s="13">
+        <v>25</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U36" s="15">
         <v>0</v>
       </c>
-      <c r="V36" s="14">
+      <c r="V36" s="16">
         <v>2.26</v>
       </c>
     </row>
@@ -4336,7 +4320,7 @@
         <v>300670</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E37" s="4">
         <v>-2.95</v>
@@ -4345,7 +4329,7 @@
         <v>7.9</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H37" s="4">
         <v>-2.66</v>
@@ -4357,7 +4341,7 @@
         <v>8.35</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="4">
@@ -4373,21 +4357,21 @@
         <v>-0.4</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U37" s="13">
+        <v>25</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="15">
         <v>0</v>
       </c>
-      <c r="V37" s="14">
+      <c r="V37" s="16">
         <v>1.44</v>
       </c>
     </row>
@@ -4402,7 +4386,7 @@
         <v>300697</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E38" s="4">
         <v>-2.07</v>
@@ -4411,7 +4395,7 @@
         <v>14.63</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H38" s="4">
         <v>-0.96</v>
@@ -4423,7 +4407,7 @@
         <v>2.46</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
@@ -4439,21 +4423,21 @@
         <v>-1.29</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U38" s="16">
+        <v>25</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U38" s="18">
         <v>1</v>
       </c>
-      <c r="V38" s="14">
+      <c r="V38" s="16">
         <v>4.39</v>
       </c>
     </row>
@@ -4468,7 +4452,7 @@
         <v>300753</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E39" s="4">
         <v>-3.24</v>
@@ -4477,7 +4461,7 @@
         <v>31.1</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H39" s="4">
         <v>0.8</v>
@@ -4489,7 +4473,7 @@
         <v>0.93</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="4">
@@ -4505,21 +4489,21 @@
         <v>-1.37</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U39" s="13">
+        <v>25</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="15">
         <v>0</v>
       </c>
-      <c r="V39" s="14">
+      <c r="V39" s="16">
         <v>5.2</v>
       </c>
     </row>
@@ -4534,7 +4518,7 @@
         <v>300773</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E40" s="4">
         <v>-2.06</v>
@@ -4543,7 +4527,7 @@
         <v>30.39</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H40" s="4">
         <v>-3.95</v>
@@ -4555,7 +4539,7 @@
         <v>2.34</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="4">
@@ -4571,21 +4555,21 @@
         <v>-0.66</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U40" s="13">
+        <v>25</v>
+      </c>
+      <c r="R40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U40" s="15">
         <v>0</v>
       </c>
-      <c r="V40" s="14">
+      <c r="V40" s="16">
         <v>0.25</v>
       </c>
     </row>
@@ -4600,7 +4584,7 @@
         <v>300778</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="4">
         <v>20.03</v>
@@ -4609,7 +4593,7 @@
         <v>17.86</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H41" s="4">
         <v>19.99</v>
@@ -4621,7 +4605,7 @@
         <v>19.99</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
@@ -4637,21 +4621,21 @@
         <v>1.74</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U41" s="16">
+        <v>25</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="18">
         <v>1</v>
       </c>
-      <c r="V41" s="14">
+      <c r="V41" s="16">
         <v>11.98</v>
       </c>
     </row>
@@ -4666,7 +4650,7 @@
         <v>300803</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E42" s="4">
         <v>-2.84</v>
@@ -4675,7 +4659,7 @@
         <v>78.8</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H42" s="4">
         <v>-0.22</v>
@@ -4687,7 +4671,7 @@
         <v>2.27</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
@@ -4703,21 +4687,21 @@
         <v>-0.99</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U42" s="13">
+        <v>25</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U42" s="15">
         <v>0</v>
       </c>
-      <c r="V42" s="14">
+      <c r="V42" s="16">
         <v>0.75</v>
       </c>
     </row>
@@ -4732,7 +4716,7 @@
         <v>300821</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E43" s="4">
         <v>1.2</v>
@@ -4741,7 +4725,7 @@
         <v>10.16</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H43" s="4">
         <v>4.92</v>
@@ -4753,7 +4737,7 @@
         <v>14.37</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
@@ -4769,21 +4753,21 @@
         <v>-0.35</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U43" s="13">
+        <v>25</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" s="15">
         <v>0</v>
       </c>
-      <c r="V43" s="14">
+      <c r="V43" s="16">
         <v>4.78</v>
       </c>
     </row>
@@ -4798,7 +4782,7 @@
         <v>300847</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E44" s="4">
         <v>-5.51</v>
@@ -4807,7 +4791,7 @@
         <v>20.74</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H44" s="4">
         <v>3.66</v>
@@ -4819,7 +4803,7 @@
         <v>5.16</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
@@ -4835,21 +4819,21 @@
         <v>-0.93</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U44" s="13">
+        <v>25</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U44" s="15">
         <v>0</v>
       </c>
-      <c r="V44" s="14">
+      <c r="V44" s="16">
         <v>2.55</v>
       </c>
     </row>
@@ -4864,7 +4848,7 @@
         <v>300872</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E45" s="4">
         <v>-4.4</v>
@@ -4873,7 +4857,7 @@
         <v>25.86</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H45" s="4">
         <v>-2.55</v>
@@ -4885,7 +4869,7 @@
         <v>0.97</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="4">
@@ -4901,21 +4885,21 @@
         <v>-2.72</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U45" s="13">
+        <v>25</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" s="15">
         <v>0</v>
       </c>
-      <c r="V45" s="14">
+      <c r="V45" s="16">
         <v>2.99</v>
       </c>
     </row>
@@ -4930,7 +4914,7 @@
         <v>300875</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4">
         <v>6.05</v>
@@ -4939,7 +4923,7 @@
         <v>47</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H46" s="4">
         <v>-8.6</v>
@@ -4951,7 +4935,7 @@
         <v>-2.55</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
@@ -4967,21 +4951,21 @@
         <v>1.09</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" s="13">
+        <v>25</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="15">
         <v>0</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V46" s="16">
         <v>4.49</v>
       </c>
     </row>
@@ -4996,7 +4980,7 @@
         <v>300897</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E47" s="4">
         <v>-1.44</v>
@@ -5005,19 +4989,19 @@
         <v>25.36</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J47" s="11" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
@@ -5033,21 +5017,21 @@
         <v>-0.65</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="17" t="e">
+        <v>25</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U47" s="13">
+      <c r="U47" s="15">
         <v>0</v>
       </c>
-      <c r="V47" s="14">
+      <c r="V47" s="16">
         <v>2.9</v>
       </c>
     </row>
@@ -5062,7 +5046,7 @@
         <v>300903</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E48" s="4">
         <v>-0.8</v>
@@ -5071,7 +5055,7 @@
         <v>11.1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H48" s="4">
         <v>-3.33</v>
@@ -5083,7 +5067,7 @@
         <v>1.62</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
@@ -5099,21 +5083,21 @@
         <v>0.22</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U48" s="13">
+        <v>25</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U48" s="15">
         <v>0</v>
       </c>
-      <c r="V48" s="14">
+      <c r="V48" s="16">
         <v>1.6</v>
       </c>
     </row>
@@ -5128,7 +5112,7 @@
         <v>300947</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4">
         <v>-4.7</v>
@@ -5137,7 +5121,7 @@
         <v>24.76</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H49" s="4">
         <v>11.11</v>
@@ -5149,7 +5133,7 @@
         <v>16.32</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
@@ -5165,21 +5149,21 @@
         <v>-0.63</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U49" s="13">
+        <v>25</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U49" s="15">
         <v>0</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="16">
         <v>3.43</v>
       </c>
     </row>
@@ -5194,7 +5178,7 @@
         <v>300971</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E50" s="4">
         <v>-3.6</v>
@@ -5203,7 +5187,7 @@
         <v>22.77</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H50" s="4">
         <v>-4.04</v>
@@ -5215,7 +5199,7 @@
         <v>2.11</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="4">
@@ -5231,21 +5215,21 @@
         <v>-1.81</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U50" s="13">
+        <v>25</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" s="15">
         <v>0</v>
       </c>
-      <c r="V50" s="14">
+      <c r="V50" s="16">
         <v>5.08</v>
       </c>
     </row>
@@ -5260,7 +5244,7 @@
         <v>300982</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E51" s="4">
         <v>3.95</v>
@@ -5269,7 +5253,7 @@
         <v>23.69</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H51" s="4">
         <v>-6.96</v>
@@ -5281,7 +5265,7 @@
         <v>-2.28</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
@@ -5297,21 +5281,21 @@
         <v>0.19</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U51" s="13">
+        <v>25</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" s="15">
         <v>0</v>
       </c>
-      <c r="V51" s="14">
+      <c r="V51" s="16">
         <v>1.02</v>
       </c>
     </row>
@@ -5326,7 +5310,7 @@
         <v>300991</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E52" s="4">
         <v>8.12</v>
@@ -5335,7 +5319,7 @@
         <v>33.83</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H52" s="4">
         <v>-4.88</v>
@@ -5347,7 +5331,7 @@
         <v>8.39</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="4">
@@ -5363,21 +5347,21 @@
         <v>-0.18</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U52" s="13">
+        <v>25</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U52" s="15">
         <v>0</v>
       </c>
-      <c r="V52" s="14">
+      <c r="V52" s="16">
         <v>1.43</v>
       </c>
     </row>
@@ -5392,7 +5376,7 @@
         <v>300993</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E53" s="4">
         <v>-3.13</v>
@@ -5401,7 +5385,7 @@
         <v>15.17</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H53" s="4">
         <v>-1.05</v>
@@ -5413,7 +5397,7 @@
         <v>0.53</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
@@ -5429,21 +5413,21 @@
         <v>-0.74</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U53" s="13">
+        <v>25</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U53" s="15">
         <v>0</v>
       </c>
-      <c r="V53" s="14">
+      <c r="V53" s="16">
         <v>6.92</v>
       </c>
     </row>
@@ -5458,7 +5442,7 @@
         <v>301024</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E54" s="4">
         <v>-5.4</v>
@@ -5467,7 +5451,7 @@
         <v>57.47</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H54" s="4">
         <v>-1.51</v>
@@ -5479,7 +5463,7 @@
         <v>3.85</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
@@ -5495,21 +5479,21 @@
         <v>-0.83</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U54" s="13">
+        <v>25</v>
+      </c>
+      <c r="R54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="15">
         <v>0</v>
       </c>
-      <c r="V54" s="14">
+      <c r="V54" s="16">
         <v>2.89</v>
       </c>
     </row>
@@ -5524,7 +5508,7 @@
         <v>301120</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E55" s="4">
         <v>19.97</v>
@@ -5533,7 +5517,7 @@
         <v>14.12</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H55" s="4">
         <v>0.85</v>
@@ -5545,7 +5529,7 @@
         <v>12.96</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="4">
@@ -5560,22 +5544,22 @@
       <c r="P55" s="10">
         <v>4.32</v>
       </c>
-      <c r="Q55" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R55" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U55" s="16">
+      <c r="Q55" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U55" s="18">
         <v>1</v>
       </c>
-      <c r="V55" s="14">
+      <c r="V55" s="16">
         <v>6.68</v>
       </c>
     </row>
@@ -5590,7 +5574,7 @@
         <v>301132</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E56" s="4">
         <v>-3.23</v>
@@ -5599,7 +5583,7 @@
         <v>35.64</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H56" s="4">
         <v>-3.14</v>
@@ -5611,7 +5595,7 @@
         <v>5.42</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
@@ -5627,21 +5611,21 @@
         <v>-1.95</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U56" s="13">
+        <v>25</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U56" s="15">
         <v>0</v>
       </c>
-      <c r="V56" s="14">
+      <c r="V56" s="16">
         <v>4.85</v>
       </c>
     </row>
@@ -5656,7 +5640,7 @@
         <v>301141</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E57" s="4">
         <v>-4.75</v>
@@ -5665,7 +5649,7 @@
         <v>62.51</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H57" s="4">
         <v>4.06</v>
@@ -5677,7 +5661,7 @@
         <v>9.98</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="4">
@@ -5693,21 +5677,21 @@
         <v>-3.07</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T57" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U57" s="13">
+        <v>25</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U57" s="15">
         <v>0</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="16">
         <v>8.76</v>
       </c>
     </row>
@@ -5722,7 +5706,7 @@
         <v>301150</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E58" s="4">
         <v>4.94</v>
@@ -5731,7 +5715,7 @@
         <v>25.72</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H58" s="4">
         <v>-7.93</v>
@@ -5743,7 +5727,7 @@
         <v>-1.32</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="4">
@@ -5759,21 +5743,21 @@
         <v>0.97</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="16">
+        <v>25</v>
+      </c>
+      <c r="R58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" s="18">
         <v>1</v>
       </c>
-      <c r="V58" s="14">
+      <c r="V58" s="16">
         <v>9.85</v>
       </c>
     </row>
@@ -5788,7 +5772,7 @@
         <v>301176</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E59" s="4">
         <v>4.03</v>
@@ -5797,7 +5781,7 @@
         <v>39.46</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H59" s="4">
         <v>-6.87</v>
@@ -5809,7 +5793,7 @@
         <v>3.62</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="4">
@@ -5825,21 +5809,21 @@
         <v>-2.09</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U59" s="13">
+        <v>25</v>
+      </c>
+      <c r="R59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U59" s="15">
         <v>0</v>
       </c>
-      <c r="V59" s="14">
+      <c r="V59" s="16">
         <v>0.23</v>
       </c>
     </row>
@@ -5854,7 +5838,7 @@
         <v>301178</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E60" s="4">
         <v>-1.87</v>
@@ -5863,7 +5847,7 @@
         <v>58.88</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H60" s="4">
         <v>-2.67</v>
@@ -5875,7 +5859,7 @@
         <v>0.17</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="4">
@@ -5891,21 +5875,21 @@
         <v>-1.39</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U60" s="13">
+        <v>25</v>
+      </c>
+      <c r="R60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" s="15">
         <v>0</v>
       </c>
-      <c r="V60" s="14">
+      <c r="V60" s="16">
         <v>4.35</v>
       </c>
     </row>
@@ -5920,7 +5904,7 @@
         <v>301197</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E61" s="4">
         <v>2.03</v>
@@ -5929,7 +5913,7 @@
         <v>24.08</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H61" s="4">
         <v>-6.4</v>
@@ -5941,7 +5925,7 @@
         <v>-0.5</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="4">
@@ -5957,21 +5941,21 @@
         <v>0.21</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U61" s="13">
+        <v>25</v>
+      </c>
+      <c r="R61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U61" s="15">
         <v>0</v>
       </c>
-      <c r="V61" s="14">
+      <c r="V61" s="16">
         <v>2.97</v>
       </c>
     </row>
@@ -5986,7 +5970,7 @@
         <v>301208</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E62" s="4">
         <v>5.71</v>
@@ -5995,7 +5979,7 @@
         <v>53.17</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H62" s="4">
         <v>-9.23</v>
@@ -6007,7 +5991,7 @@
         <v>-4.1</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="4">
@@ -6023,21 +6007,21 @@
         <v>-2.02</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U62" s="13">
+        <v>25</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U62" s="15">
         <v>0</v>
       </c>
-      <c r="V62" s="14">
+      <c r="V62" s="16">
         <v>2.25</v>
       </c>
     </row>
@@ -6052,7 +6036,7 @@
         <v>301217</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E63" s="4">
         <v>20.02</v>
@@ -6061,7 +6045,7 @@
         <v>20.26</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H63" s="4">
         <v>-4.94</v>
@@ -6073,7 +6057,7 @@
         <v>4.84</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
@@ -6088,22 +6072,22 @@
       <c r="P63" s="10">
         <v>4.78</v>
       </c>
-      <c r="Q63" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R63" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U63" s="16">
+      <c r="Q63" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R63" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U63" s="18">
         <v>1</v>
       </c>
-      <c r="V63" s="14">
+      <c r="V63" s="16">
         <v>19.64</v>
       </c>
     </row>
@@ -6118,7 +6102,7 @@
         <v>301258</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E64" s="4">
         <v>0.14</v>
@@ -6127,7 +6111,7 @@
         <v>36.15</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H64" s="4">
         <v>-5.95</v>
@@ -6139,7 +6123,7 @@
         <v>-1.24</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="4">
@@ -6155,21 +6139,21 @@
         <v>-0.9</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U64" s="16">
+        <v>25</v>
+      </c>
+      <c r="R64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="18">
         <v>1</v>
       </c>
-      <c r="V64" s="14">
+      <c r="V64" s="16">
         <v>3.71</v>
       </c>
     </row>
@@ -6184,7 +6168,7 @@
         <v>301306</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E65" s="4">
         <v>-5.84</v>
@@ -6193,7 +6177,7 @@
         <v>52.75</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H65" s="4">
         <v>-3.32</v>
@@ -6205,7 +6189,7 @@
         <v>-0.99</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="4">
@@ -6221,21 +6205,21 @@
         <v>-2.41</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U65" s="13">
+        <v>25</v>
+      </c>
+      <c r="R65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U65" s="15">
         <v>0</v>
       </c>
-      <c r="V65" s="14">
+      <c r="V65" s="16">
         <v>2.01</v>
       </c>
     </row>
@@ -6250,7 +6234,7 @@
         <v>301311</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E66" s="4">
         <v>-3.58</v>
@@ -6259,7 +6243,7 @@
         <v>20.98</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H66" s="4">
         <v>0.95</v>
@@ -6271,7 +6255,7 @@
         <v>1.43</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="4">
@@ -6287,21 +6271,21 @@
         <v>-0.79</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U66" s="13">
+        <v>25</v>
+      </c>
+      <c r="R66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U66" s="15">
         <v>0</v>
       </c>
-      <c r="V66" s="14">
+      <c r="V66" s="16">
         <v>6.04</v>
       </c>
     </row>
@@ -6316,7 +6300,7 @@
         <v>301312</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E67" s="4">
         <v>-5.25</v>
@@ -6325,7 +6309,7 @@
         <v>41.11</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H67" s="4">
         <v>-0.75</v>
@@ -6337,7 +6321,7 @@
         <v>1.97</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="4">
@@ -6353,21 +6337,21 @@
         <v>-2.43</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U67" s="13">
+        <v>25</v>
+      </c>
+      <c r="R67" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S67" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U67" s="15">
         <v>0</v>
       </c>
-      <c r="V67" s="14">
+      <c r="V67" s="16">
         <v>1.81</v>
       </c>
     </row>
@@ -6382,7 +6366,7 @@
         <v>301345</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E68" s="4">
         <v>3.29</v>
@@ -6391,7 +6375,7 @@
         <v>141.17</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H68" s="4">
         <v>1.59</v>
@@ -6403,7 +6387,7 @@
         <v>3.07</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
@@ -6419,21 +6403,21 @@
         <v>0.86</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U68" s="13">
+        <v>25</v>
+      </c>
+      <c r="R68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U68" s="15">
         <v>0</v>
       </c>
-      <c r="V68" s="14">
+      <c r="V68" s="16">
         <v>4.31</v>
       </c>
     </row>
@@ -6448,7 +6432,7 @@
         <v>301357</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E69" s="4">
         <v>-2.34</v>
@@ -6457,7 +6441,7 @@
         <v>82.88</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H69" s="4">
         <v>-10.33</v>
@@ -6469,7 +6453,7 @@
         <v>-3.96</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="4">
@@ -6485,21 +6469,21 @@
         <v>-3.02</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U69" s="13">
+        <v>25</v>
+      </c>
+      <c r="R69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="15">
         <v>0</v>
       </c>
-      <c r="V69" s="14">
+      <c r="V69" s="16">
         <v>1.78</v>
       </c>
     </row>
@@ -6514,7 +6498,7 @@
         <v>301388</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E70" s="4">
         <v>4.96</v>
@@ -6523,7 +6507,7 @@
         <v>39.98</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H70" s="4">
         <v>-10.48</v>
@@ -6535,7 +6519,7 @@
         <v>-3.7</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="4">
@@ -6550,22 +6534,22 @@
       <c r="P70" s="10">
         <v>3.63</v>
       </c>
-      <c r="Q70" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R70" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" s="16">
+      <c r="Q70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R70" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" s="18">
         <v>1</v>
       </c>
-      <c r="V70" s="14">
+      <c r="V70" s="16">
         <v>10.23</v>
       </c>
     </row>
@@ -6580,7 +6564,7 @@
         <v>301389</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E71" s="4">
         <v>12.92</v>
@@ -6589,7 +6573,7 @@
         <v>38.01</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H71" s="4">
         <v>-10.18</v>
@@ -6601,7 +6585,7 @@
         <v>1.5</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
@@ -6617,21 +6601,21 @@
         <v>1.14</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" s="16">
+        <v>25</v>
+      </c>
+      <c r="R71" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="18">
         <v>1</v>
       </c>
-      <c r="V71" s="14">
+      <c r="V71" s="16">
         <v>3.9</v>
       </c>
     </row>
@@ -6646,7 +6630,7 @@
         <v>301408</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E72" s="4">
         <v>-1.8</v>
@@ -6655,7 +6639,7 @@
         <v>14.16</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H72" s="4">
         <v>1.13</v>
@@ -6667,7 +6651,7 @@
         <v>2.05</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
@@ -6683,21 +6667,21 @@
         <v>-0.53</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U72" s="13">
+        <v>25</v>
+      </c>
+      <c r="R72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" s="15">
         <v>0</v>
       </c>
-      <c r="V72" s="14">
+      <c r="V72" s="16">
         <v>0.7</v>
       </c>
     </row>
@@ -6712,7 +6696,7 @@
         <v>301421</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E73" s="4">
         <v>-0.82</v>
@@ -6721,7 +6705,7 @@
         <v>71.3</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H73" s="4">
         <v>-1.61</v>
@@ -6733,7 +6717,7 @@
         <v>0.28</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="4">
@@ -6749,21 +6733,21 @@
         <v>0.18</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" s="13">
+        <v>25</v>
+      </c>
+      <c r="R73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="15">
         <v>0</v>
       </c>
-      <c r="V73" s="14">
+      <c r="V73" s="16">
         <v>1.53</v>
       </c>
     </row>
@@ -6778,7 +6762,7 @@
         <v>301511</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E74" s="4">
         <v>-4.59</v>
@@ -6787,7 +6771,7 @@
         <v>25.75</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H74" s="4">
         <v>-1.9</v>
@@ -6799,7 +6783,7 @@
         <v>4.85</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="4">
@@ -6815,21 +6799,21 @@
         <v>0.01</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U74" s="13">
+        <v>25</v>
+      </c>
+      <c r="R74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" s="15">
         <v>0</v>
       </c>
-      <c r="V74" s="14">
+      <c r="V74" s="16">
         <v>0.8</v>
       </c>
     </row>
@@ -6844,7 +6828,7 @@
         <v>301526</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E75" s="4">
         <v>5.95</v>
@@ -6853,7 +6837,7 @@
         <v>5.34</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75" s="4">
         <v>3</v>
@@ -6865,7 +6849,7 @@
         <v>11.8</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="4">
@@ -6881,21 +6865,21 @@
         <v>-5.01</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U75" s="13">
+        <v>25</v>
+      </c>
+      <c r="R75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U75" s="15">
         <v>0</v>
       </c>
-      <c r="V75" s="14">
+      <c r="V75" s="16">
         <v>7.79</v>
       </c>
     </row>
@@ -6910,7 +6894,7 @@
         <v>688062</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E76" s="4">
         <v>-0.62</v>
@@ -6919,7 +6903,7 @@
         <v>30.4</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H76" s="4">
         <v>4.38</v>
@@ -6931,7 +6915,7 @@
         <v>5.33</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="4">
@@ -6947,21 +6931,21 @@
         <v>0.05</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S76" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U76" s="13">
+        <v>25</v>
+      </c>
+      <c r="R76" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U76" s="15">
         <v>0</v>
       </c>
-      <c r="V76" s="14">
+      <c r="V76" s="16">
         <v>0.93</v>
       </c>
     </row>
@@ -6976,7 +6960,7 @@
         <v>688117</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E77" s="4">
         <v>-3.85</v>
@@ -6985,7 +6969,7 @@
         <v>34.51</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H77" s="4">
         <v>-0.2</v>
@@ -6997,7 +6981,7 @@
         <v>3.1</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="4">
@@ -7013,21 +6997,21 @@
         <v>-0.27</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U77" s="16">
+        <v>25</v>
+      </c>
+      <c r="R77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U77" s="18">
         <v>1</v>
       </c>
-      <c r="V77" s="14">
+      <c r="V77" s="16">
         <v>5.84</v>
       </c>
     </row>
@@ -7042,7 +7026,7 @@
         <v>688202</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E78" s="4">
         <v>13.36</v>
@@ -7051,7 +7035,7 @@
         <v>51.35</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H78" s="4">
         <v>-2.04</v>
@@ -7063,7 +7047,7 @@
         <v>1.95</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="4">
@@ -7079,21 +7063,21 @@
         <v>-0.8</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U78" s="16">
+        <v>25</v>
+      </c>
+      <c r="R78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" s="18">
         <v>1</v>
       </c>
-      <c r="V78" s="14">
+      <c r="V78" s="16">
         <v>2.65</v>
       </c>
     </row>
@@ -7108,7 +7092,7 @@
         <v>688221</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E79" s="4">
         <v>-2.3</v>
@@ -7117,7 +7101,7 @@
         <v>14.46</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H79" s="4">
         <v>11.48</v>
@@ -7129,7 +7113,7 @@
         <v>13.07</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="4">
@@ -7145,21 +7129,21 @@
         <v>0.14</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U79" s="13">
+        <v>25</v>
+      </c>
+      <c r="R79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U79" s="15">
         <v>0</v>
       </c>
-      <c r="V79" s="14">
+      <c r="V79" s="16">
         <v>0.82</v>
       </c>
     </row>
@@ -7174,7 +7158,7 @@
         <v>688291</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E80" s="4">
         <v>-5.6</v>
@@ -7183,7 +7167,7 @@
         <v>38.47</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H80" s="4">
         <v>-9.41</v>
@@ -7195,7 +7179,7 @@
         <v>-1.48</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="4">
@@ -7211,21 +7195,21 @@
         <v>-0.62</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U80" s="16">
+        <v>25</v>
+      </c>
+      <c r="R80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U80" s="18">
         <v>1</v>
       </c>
-      <c r="V80" s="14">
+      <c r="V80" s="16">
         <v>4.25</v>
       </c>
     </row>
@@ -7240,7 +7224,7 @@
         <v>688321</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E81" s="4">
         <v>-0.32</v>
@@ -7249,7 +7233,7 @@
         <v>31.3</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H81" s="4">
         <v>4.38</v>
@@ -7261,7 +7245,7 @@
         <v>9.49</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="4">
@@ -7277,21 +7261,21 @@
         <v>0.23</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R81" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S81" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U81" s="13">
+        <v>25</v>
+      </c>
+      <c r="R81" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T81" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U81" s="15">
         <v>0</v>
       </c>
-      <c r="V81" s="14">
+      <c r="V81" s="16">
         <v>1.84</v>
       </c>
     </row>
@@ -7306,7 +7290,7 @@
         <v>688499</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E82" s="4">
         <v>0.31</v>
@@ -7315,7 +7299,7 @@
         <v>39.4</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H82" s="4">
         <v>0.15</v>
@@ -7327,7 +7311,7 @@
         <v>0.96</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="4">
@@ -7343,21 +7327,21 @@
         <v>0.28</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T82" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="U82" s="16">
+        <v>25</v>
+      </c>
+      <c r="R82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T82" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="U82" s="18">
         <v>1</v>
       </c>
-      <c r="V82" s="14">
+      <c r="V82" s="16">
         <v>4.55</v>
       </c>
     </row>
@@ -7372,7 +7356,7 @@
         <v>688553</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E83" s="4">
         <v>2.93</v>
@@ -7381,7 +7365,7 @@
         <v>20.02</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H83" s="4">
         <v>1.55</v>
@@ -7393,7 +7377,7 @@
         <v>7.14</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="4">
@@ -7409,21 +7393,21 @@
         <v>0.86</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U83" s="13">
+        <v>25</v>
+      </c>
+      <c r="R83" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U83" s="15">
         <v>0</v>
       </c>
-      <c r="V83" s="14">
+      <c r="V83" s="16">
         <v>2.56</v>
       </c>
     </row>
@@ -7438,7 +7422,7 @@
         <v>688717</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E84" s="4">
         <v>-1.7</v>
@@ -7447,7 +7431,7 @@
         <v>64.88</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H84" s="4">
         <v>2.67</v>
@@ -7459,7 +7443,7 @@
         <v>7.51</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="4">
@@ -7475,21 +7459,21 @@
         <v>-0.11</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R84" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S84" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T84" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U84" s="16">
+        <v>25</v>
+      </c>
+      <c r="R84" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U84" s="18">
         <v>1</v>
       </c>
-      <c r="V84" s="14">
+      <c r="V84" s="16">
         <v>3.81</v>
       </c>
     </row>
@@ -7504,7 +7488,7 @@
         <v>688799</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E85" s="4">
         <v>3.04</v>
@@ -7513,7 +7497,7 @@
         <v>50.49</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H85" s="4">
         <v>14.85</v>
@@ -7525,7 +7509,7 @@
         <v>19.92</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L85" s="9"/>
       <c r="M85" s="4">
@@ -7541,123 +7525,123 @@
         <v>0.37</v>
       </c>
       <c r="Q85" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R85" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="S85" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T85" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="U85" s="13">
+        <v>25</v>
+      </c>
+      <c r="R85" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S85" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="T85" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U85" s="15">
         <v>0</v>
       </c>
-      <c r="V85" s="14">
+      <c r="V85" s="16">
         <v>0.7</v>
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="18"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="25"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="18"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="27"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="14"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="18"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="27"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="14"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="18"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="27"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="14"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="18"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="25"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
